--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_7.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9739919932795403</v>
+        <v>0.9896610866136045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7913861717117245</v>
+        <v>0.7704189145757075</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9961055556184962</v>
+        <v>0.9307682222371333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9738437276171079</v>
+        <v>0.960090176709757</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9884885026516221</v>
+        <v>0.9491389887893951</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1739156606955732</v>
+        <v>0.06913636142114549</v>
       </c>
       <c r="H2" t="n">
-        <v>1.395001630342052</v>
+        <v>1.535209775355939</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01407271522373938</v>
+        <v>0.2123126944456255</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06098246758309252</v>
+        <v>0.1665044759980715</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0375275238132376</v>
+        <v>0.1894085852218485</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9335050680498428</v>
+        <v>0.3893382478353534</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4170319660356663</v>
+        <v>0.2629379421482291</v>
       </c>
       <c r="N2" t="n">
-        <v>1.012738615536552</v>
+        <v>1.00506395757701</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4347858802049844</v>
+        <v>0.2741317547020551</v>
       </c>
       <c r="P2" t="n">
-        <v>149.4983696118459</v>
+        <v>151.3433489442449</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.4763048272245</v>
+        <v>240.3212841596235</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.975632149608478</v>
+        <v>0.9892251168074191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.78985948952606</v>
+        <v>0.7695799645982112</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9882991750865708</v>
+        <v>0.925148826030126</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9314343137547686</v>
+        <v>0.9574236373609302</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9689969768555868</v>
+        <v>0.9453315918795805</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1629479277717417</v>
+        <v>0.07205169352256367</v>
       </c>
       <c r="H3" t="n">
-        <v>1.405210561147316</v>
+        <v>1.540819837718467</v>
       </c>
       <c r="I3" t="n">
-        <v>0.042281352809035</v>
+        <v>0.2295456644547702</v>
       </c>
       <c r="J3" t="n">
-        <v>0.159858586787663</v>
+        <v>0.177629324479002</v>
       </c>
       <c r="K3" t="n">
-        <v>0.101069969798349</v>
+        <v>0.2035874944668861</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8587229442327847</v>
+        <v>0.3889668631782743</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4036680910992863</v>
+        <v>0.2684244652086759</v>
       </c>
       <c r="N3" t="n">
-        <v>1.011935273661154</v>
+        <v>1.005277493808611</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4208530774455278</v>
+        <v>0.2798518504078535</v>
       </c>
       <c r="P3" t="n">
-        <v>149.6286491814743</v>
+        <v>151.2607429039778</v>
       </c>
       <c r="Q3" t="n">
-        <v>238.6065843968529</v>
+        <v>240.2386781193565</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9755678261498011</v>
+        <v>0.9887892225975968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7867417271021804</v>
+        <v>0.7687903835984355</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9782320638956687</v>
+        <v>0.9198919763124876</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8780722425825905</v>
+        <v>0.9549537709316769</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9443360291149246</v>
+        <v>0.9417836364083076</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1633780590360966</v>
+        <v>0.0749665201107535</v>
       </c>
       <c r="H4" t="n">
-        <v>1.426059052831774</v>
+        <v>1.546099769499653</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07865922216265568</v>
+        <v>0.2456668152313745</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2842704574008644</v>
+        <v>0.1879336501232746</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1814647503891748</v>
+        <v>0.2168002326773246</v>
       </c>
       <c r="L4" t="n">
-        <v>0.791929707699914</v>
+        <v>0.3886590748549896</v>
       </c>
       <c r="M4" t="n">
-        <v>0.404200518352088</v>
+        <v>0.2738001462942515</v>
       </c>
       <c r="N4" t="n">
-        <v>1.011966779028669</v>
+        <v>1.005490993013422</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4214081712287576</v>
+        <v>0.285456385366436</v>
       </c>
       <c r="P4" t="n">
-        <v>149.6233767663943</v>
+        <v>151.1814273272692</v>
       </c>
       <c r="Q4" t="n">
-        <v>238.6013119817729</v>
+        <v>240.1593625426478</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9744944764929094</v>
+        <v>0.9883620424438732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7828001012942938</v>
+        <v>0.7680520886850618</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9673424662248412</v>
+        <v>0.9150023412536158</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8210535581321383</v>
+        <v>0.9526756843308101</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9179116936360687</v>
+        <v>0.9384943036130862</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1705555531340515</v>
+        <v>0.07782307576568742</v>
       </c>
       <c r="H5" t="n">
-        <v>1.45241672275863</v>
+        <v>1.551036750984918</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1180091760740481</v>
+        <v>0.2606618309272113</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4172075986429226</v>
+        <v>0.1974378669923154</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2676081815103649</v>
+        <v>0.2290498489597634</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7325131032694939</v>
+        <v>0.3883962279614684</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4129837201804104</v>
+        <v>0.2789678758668951</v>
       </c>
       <c r="N5" t="n">
-        <v>1.012492501309595</v>
+        <v>1.005700224109123</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4305652921426459</v>
+        <v>0.2908441158856621</v>
       </c>
       <c r="P5" t="n">
-        <v>149.5373884209896</v>
+        <v>151.1066345762078</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.5153236363682</v>
+        <v>240.0845697915864</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9728614726016808</v>
+        <v>0.9879495083668717</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7785279957403282</v>
+        <v>0.7673653880946188</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9565031260589829</v>
+        <v>0.9104741138426831</v>
       </c>
       <c r="E6" t="n">
-        <v>0.764582113939702</v>
+        <v>0.9505817054925161</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8917107988428751</v>
+        <v>0.9354568884317193</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1814754576739889</v>
+        <v>0.08058169303814097</v>
       </c>
       <c r="H6" t="n">
-        <v>1.480984312269235</v>
+        <v>1.555628720995176</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1571775226787222</v>
+        <v>0.2745485198689668</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5488688676656491</v>
+        <v>0.2061739830779616</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3530231951721857</v>
+        <v>0.2403613132531456</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6797564481524999</v>
+        <v>0.3881680704305612</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4259993634666476</v>
+        <v>0.2838691477391317</v>
       </c>
       <c r="N6" t="n">
-        <v>1.013292339950197</v>
+        <v>1.005902281616226</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4441350383096742</v>
+        <v>0.2959540450485312</v>
       </c>
       <c r="P6" t="n">
-        <v>149.4132697076945</v>
+        <v>151.0369675775802</v>
       </c>
       <c r="Q6" t="n">
-        <v>238.3912049230732</v>
+        <v>240.0149027929588</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9709425600786241</v>
+        <v>0.9875556344294091</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7742142592721988</v>
+        <v>0.7667294695480129</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9461692193690351</v>
+        <v>0.9062964802274093</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7107836209765228</v>
+        <v>0.9486623787979561</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8667458211492735</v>
+        <v>0.9326616915791308</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1943072345514485</v>
+        <v>0.08321552987157639</v>
       </c>
       <c r="H7" t="n">
-        <v>1.509830287894547</v>
+        <v>1.559881111244465</v>
       </c>
       <c r="I7" t="n">
-        <v>0.19451946718999</v>
+        <v>0.287360044835196</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6742982409769673</v>
+        <v>0.2141814473862528</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4344091145309392</v>
+        <v>0.2507707461107244</v>
       </c>
       <c r="L7" t="n">
-        <v>0.632907239096726</v>
+        <v>0.3879650054257036</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4408029429931798</v>
+        <v>0.2884710208523144</v>
       </c>
       <c r="N7" t="n">
-        <v>1.014232215471694</v>
+        <v>1.006095199463147</v>
       </c>
       <c r="O7" t="n">
-        <v>0.459568836864285</v>
+        <v>0.3007518294273326</v>
       </c>
       <c r="P7" t="n">
-        <v>149.2766293787357</v>
+        <v>150.9726425829259</v>
       </c>
       <c r="Q7" t="n">
-        <v>238.2545645941143</v>
+        <v>239.9505777983046</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9689026520766683</v>
+        <v>0.9871830831258702</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7700194293544624</v>
+        <v>0.7661427669248895</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9365488242755757</v>
+        <v>0.9024558200953551</v>
       </c>
       <c r="E8" t="n">
-        <v>0.660602197493328</v>
+        <v>0.9469076400548747</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8434698567777006</v>
+        <v>0.9300974178044172</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2079481087534403</v>
+        <v>0.08570678215378173</v>
       </c>
       <c r="H8" t="n">
-        <v>1.537881134869866</v>
+        <v>1.563804394386809</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2292831118149105</v>
+        <v>0.2991381751596737</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7912945386924981</v>
+        <v>0.2215022479020925</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5102888442303395</v>
+        <v>0.2603202115308831</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5912422971509735</v>
+        <v>0.3877791780725945</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4560132769486435</v>
+        <v>0.2927572068349159</v>
       </c>
       <c r="N8" t="n">
-        <v>1.015231354084897</v>
+        <v>1.006277673571002</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4754267062259648</v>
+        <v>0.3052204872208417</v>
       </c>
       <c r="P8" t="n">
-        <v>149.1409334151047</v>
+        <v>150.913646636385</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1188686304833</v>
+        <v>239.8915818517636</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9668416041768648</v>
+        <v>0.9868332296947034</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7660289706953678</v>
+        <v>0.7656031658553545</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9277142560359938</v>
+        <v>0.898934541941882</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6143583381291688</v>
+        <v>0.9453063867500915</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8220373668134922</v>
+        <v>0.9277506214936981</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2217303455496788</v>
+        <v>0.08804625365892083</v>
       </c>
       <c r="H9" t="n">
-        <v>1.564565350297604</v>
+        <v>1.567412709223424</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2612071427628948</v>
+        <v>0.3099368586084376</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8991105383621004</v>
+        <v>0.2281827045033196</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5801588405624977</v>
+        <v>0.2690597815558786</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5541285219758508</v>
+        <v>0.3876094183172316</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4708825177787754</v>
+        <v>0.2967258897685216</v>
       </c>
       <c r="N9" t="n">
-        <v>1.01624084693378</v>
+        <v>1.006449030353615</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4909289614218073</v>
+        <v>0.3093581252032372</v>
       </c>
       <c r="P9" t="n">
-        <v>149.0125865901859</v>
+        <v>150.8597859856558</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.9905218055646</v>
+        <v>239.8377212010344</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9648201819249439</v>
+        <v>0.9865066296577008</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7622848338389152</v>
+        <v>0.7651082645305983</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9196671503612335</v>
+        <v>0.895712652557525</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5720515236981927</v>
+        <v>0.943848298055285</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8024490811656366</v>
+        <v>0.9256072894173197</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2352476054560674</v>
+        <v>0.09023022961021226</v>
       </c>
       <c r="H10" t="n">
-        <v>1.589602410696868</v>
+        <v>1.57072211666088</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2902856493334556</v>
+        <v>0.3198174082418968</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9977474504500928</v>
+        <v>0.2342658758649631</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6440167240214194</v>
+        <v>0.27704164205343</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5210261946525045</v>
+        <v>0.3874538150648003</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4850233040340097</v>
+        <v>0.3003834709337587</v>
       </c>
       <c r="N10" t="n">
-        <v>1.017230931302068</v>
+        <v>1.006608997718677</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5056717502233898</v>
+        <v>0.3131714171709152</v>
       </c>
       <c r="P10" t="n">
-        <v>148.8942333585773</v>
+        <v>150.8107815365151</v>
       </c>
       <c r="Q10" t="n">
-        <v>237.872168573956</v>
+        <v>239.7887167518938</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9628753457006566</v>
+        <v>0.9862033305570873</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7588037068585974</v>
+        <v>0.7646553518772798</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9123737933048724</v>
+        <v>0.8927720484432931</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5335254765577508</v>
+        <v>0.9425223816912701</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7846306445901329</v>
+        <v>0.923653810309259</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2482527342430244</v>
+        <v>0.09225839209257866</v>
       </c>
       <c r="H11" t="n">
-        <v>1.612880722843368</v>
+        <v>1.573750745659091</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3166404580878656</v>
+        <v>0.3288353419562226</v>
       </c>
       <c r="J11" t="n">
-        <v>1.087569631013687</v>
+        <v>0.2397976219667192</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7021048929767909</v>
+        <v>0.284316481961471</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4914592602168856</v>
+        <v>0.3873080317271317</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4982496705899809</v>
+        <v>0.3037406658525965</v>
       </c>
       <c r="N11" t="n">
-        <v>1.018183504146617</v>
+        <v>1.006757552380202</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5194611905860019</v>
+        <v>0.3166715348277995</v>
       </c>
       <c r="P11" t="n">
-        <v>148.7866159240938</v>
+        <v>150.7663240580117</v>
       </c>
       <c r="Q11" t="n">
-        <v>237.7645511394725</v>
+        <v>239.7442592733904</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.961028382296728</v>
+        <v>0.9859227756837287</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7555875887336834</v>
+        <v>0.7642416974561115</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9057844774466477</v>
+        <v>0.890092018693784</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4985431444446533</v>
+        <v>0.9413181134602732</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7684694899077229</v>
+        <v>0.9218757615172255</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2606033870295792</v>
+        <v>0.09413446382256438</v>
       </c>
       <c r="H12" t="n">
-        <v>1.634386919553531</v>
+        <v>1.576516854678147</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3404511885819196</v>
+        <v>0.3370541737658238</v>
       </c>
       <c r="J12" t="n">
-        <v>1.169129759415747</v>
+        <v>0.2448218499445034</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7547903168481712</v>
+        <v>0.2909380118551637</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4650174892492099</v>
+        <v>0.387168292314848</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5104932781433847</v>
+        <v>0.3068134022864131</v>
       </c>
       <c r="N12" t="n">
-        <v>1.019088139283235</v>
+        <v>1.006894967012051</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5322260338607158</v>
+        <v>0.319875084013045</v>
       </c>
       <c r="P12" t="n">
-        <v>148.6895112346644</v>
+        <v>150.7260621053135</v>
       </c>
       <c r="Q12" t="n">
-        <v>237.667446450043</v>
+        <v>239.7039973206922</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9592910082685898</v>
+        <v>0.9856641655643403</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7526299387073894</v>
+        <v>0.7638645142200078</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8998416393484234</v>
+        <v>0.8876535160370985</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4668438916321676</v>
+        <v>0.9402253416722848</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7538405626320048</v>
+        <v>0.9202596014562422</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2722212151556108</v>
+        <v>0.09586379088170435</v>
       </c>
       <c r="H13" t="n">
-        <v>1.654164738898086</v>
+        <v>1.579039080714742</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3619258483753164</v>
+        <v>0.3445323158298198</v>
       </c>
       <c r="J13" t="n">
-        <v>1.243035499069615</v>
+        <v>0.24938091282537</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8024806737224655</v>
+        <v>0.2969566611772417</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4413525995833838</v>
+        <v>0.3870428947220301</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5217482296621722</v>
+        <v>0.3096187831539042</v>
       </c>
       <c r="N13" t="n">
-        <v>1.019939097990895</v>
+        <v>1.007021633192976</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5439601319666195</v>
+        <v>0.3227998957520041</v>
       </c>
       <c r="P13" t="n">
-        <v>148.6022805044296</v>
+        <v>150.6896538800204</v>
       </c>
       <c r="Q13" t="n">
-        <v>237.5802157198082</v>
+        <v>239.6675890953991</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9576683668649223</v>
+        <v>0.9854265023039918</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7499194547149021</v>
+        <v>0.7635211737587846</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8944891910364131</v>
+        <v>0.88543735009515</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4381588005739048</v>
+        <v>0.9392349967795933</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7406167143858446</v>
+        <v>0.9187923860976562</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2830718256935125</v>
+        <v>0.09745304619799387</v>
       </c>
       <c r="H14" t="n">
-        <v>1.672289757836479</v>
+        <v>1.581334999959879</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3812671133841192</v>
+        <v>0.3513286191702504</v>
       </c>
       <c r="J14" t="n">
-        <v>1.309913822172058</v>
+        <v>0.2535126489199086</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8455904677780886</v>
+        <v>0.3024206340450795</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4201606114490686</v>
+        <v>0.3869255261979074</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5320449470613479</v>
+        <v>0.3121747046094444</v>
       </c>
       <c r="N14" t="n">
-        <v>1.020733861127385</v>
+        <v>1.007138039687841</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5546952019426216</v>
+        <v>0.3254646280753935</v>
       </c>
       <c r="P14" t="n">
-        <v>148.5241092250076</v>
+        <v>150.6567691888609</v>
       </c>
       <c r="Q14" t="n">
-        <v>237.5020444403862</v>
+        <v>239.6347044042396</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9561613497518247</v>
+        <v>0.9852086976992167</v>
       </c>
       <c r="C15" t="n">
-        <v>0.747442088358202</v>
+        <v>0.7632090298633277</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8896717550125326</v>
+        <v>0.883425688160128</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4122281955852602</v>
+        <v>0.9383386125546255</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7286744531937956</v>
+        <v>0.9174620442655174</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2931492560679724</v>
+        <v>0.09890950659302263</v>
       </c>
       <c r="H15" t="n">
-        <v>1.688855918070956</v>
+        <v>1.58342230762609</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3986750921948158</v>
+        <v>0.3574977712495329</v>
       </c>
       <c r="J15" t="n">
-        <v>1.37037015383055</v>
+        <v>0.2572523794766134</v>
       </c>
       <c r="K15" t="n">
-        <v>0.884522283310468</v>
+        <v>0.3073748840351843</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4011621736564186</v>
+        <v>0.3868142390349644</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5414325960523364</v>
+        <v>0.3144988181106928</v>
       </c>
       <c r="N15" t="n">
-        <v>1.02147199195829</v>
+        <v>1.007244719494261</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5644825025862688</v>
+        <v>0.3278876838999682</v>
       </c>
       <c r="P15" t="n">
-        <v>148.4541467865863</v>
+        <v>150.6270998433733</v>
       </c>
       <c r="Q15" t="n">
-        <v>237.4320820019649</v>
+        <v>239.6050350587519</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.954767879674349</v>
+        <v>0.9850094767813015</v>
       </c>
       <c r="C16" t="n">
-        <v>0.74518260973087</v>
+        <v>0.7629255109449193</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8853377450621756</v>
+        <v>0.8816016291808997</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3888037127977406</v>
+        <v>0.9375272363100267</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7178960415558244</v>
+        <v>0.9162564607137029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3024673968923918</v>
+        <v>0.1002416977884493</v>
       </c>
       <c r="H16" t="n">
-        <v>1.703965062055866</v>
+        <v>1.585318199938971</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4143361934543174</v>
+        <v>0.3630916024239135</v>
       </c>
       <c r="J16" t="n">
-        <v>1.424983546034515</v>
+        <v>0.2606374552626353</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9196599450039611</v>
+        <v>0.3118645288432744</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3841312277647642</v>
+        <v>0.3867105855860633</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5499703600126027</v>
+        <v>0.3166096931372275</v>
       </c>
       <c r="N16" t="n">
-        <v>1.022154507914605</v>
+        <v>1.007342297086709</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5733837368339315</v>
+        <v>0.3300884232464962</v>
       </c>
       <c r="P16" t="n">
-        <v>148.3915635723758</v>
+        <v>150.6003420626053</v>
       </c>
       <c r="Q16" t="n">
-        <v>237.3694987877545</v>
+        <v>239.5782772779839</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9534839730820369</v>
+        <v>0.9848276073383354</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7431254325688058</v>
+        <v>0.7626682840218002</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8814391677371874</v>
+        <v>0.8799489638666921</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3676547288128972</v>
+        <v>0.9367934025545117</v>
       </c>
       <c r="F17" t="n">
-        <v>0.70817279447732</v>
+        <v>0.9151649468059522</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3110528861870286</v>
+        <v>0.1014578595909954</v>
       </c>
       <c r="H17" t="n">
-        <v>1.71772141521102</v>
+        <v>1.58703827755829</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4284238432183902</v>
+        <v>0.3681598216321226</v>
       </c>
       <c r="J17" t="n">
-        <v>1.474291689465328</v>
+        <v>0.2636990224372906</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9513577663418591</v>
+        <v>0.3159293734088094</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3688496138093851</v>
+        <v>0.3866162001377233</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5577211545091585</v>
+        <v>0.3185245039098177</v>
       </c>
       <c r="N17" t="n">
-        <v>1.022783360123084</v>
+        <v>1.00743137599755</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5814644986985622</v>
+        <v>0.3320847514778802</v>
       </c>
       <c r="P17" t="n">
-        <v>148.3355846584236</v>
+        <v>150.5762234863066</v>
       </c>
       <c r="Q17" t="n">
-        <v>237.3135198738022</v>
+        <v>239.5541587016852</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9523047036777955</v>
+        <v>0.9846618508246802</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7412551141874393</v>
+        <v>0.7624351502133778</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8779336208905213</v>
+        <v>0.8784527260904812</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3485692982330252</v>
+        <v>0.9361301036735006</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6994051947501778</v>
+        <v>0.9141773245126947</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3189386661232271</v>
+        <v>0.1025662741610465</v>
       </c>
       <c r="H18" t="n">
-        <v>1.730228242839243</v>
+        <v>1.588597244408693</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4410912631746003</v>
+        <v>0.3727483254097774</v>
       </c>
       <c r="J18" t="n">
-        <v>1.518788727675087</v>
+        <v>0.2664663168903302</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9799401737896297</v>
+        <v>0.3196073211500538</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3551319428026695</v>
+        <v>0.3865293529995125</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5647465503420336</v>
+        <v>0.3202596979968701</v>
       </c>
       <c r="N18" t="n">
-        <v>1.023360961463937</v>
+        <v>1.007512562861381</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5887889801766171</v>
+        <v>0.3338938163695654</v>
       </c>
       <c r="P18" t="n">
-        <v>148.2855129277791</v>
+        <v>150.5544922243274</v>
       </c>
       <c r="Q18" t="n">
-        <v>237.2634481431578</v>
+        <v>239.532427439706</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9512240732708147</v>
+        <v>0.9845110487679704</v>
       </c>
       <c r="C19" t="n">
-        <v>0.739556789780762</v>
+        <v>0.7622240169502476</v>
       </c>
       <c r="D19" t="n">
-        <v>0.874780689481289</v>
+        <v>0.8770992918609366</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3313500668624422</v>
+        <v>0.9355311615266038</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6915004594799368</v>
+        <v>0.9132845627657979</v>
       </c>
       <c r="G19" t="n">
-        <v>0.326164846630553</v>
+        <v>0.1035746882086451</v>
       </c>
       <c r="H19" t="n">
-        <v>1.741584945966758</v>
+        <v>1.590009093511424</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4524844945307449</v>
+        <v>0.3768988943726861</v>
       </c>
       <c r="J19" t="n">
-        <v>1.558934785320103</v>
+        <v>0.2689651139307717</v>
       </c>
       <c r="K19" t="n">
-        <v>1.005709639925424</v>
+        <v>0.3229320041517289</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3428158877916455</v>
+        <v>0.386448814556445</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5711084368406345</v>
+        <v>0.3218302164319645</v>
       </c>
       <c r="N19" t="n">
-        <v>1.02389024982654</v>
+        <v>1.007586425093239</v>
       </c>
       <c r="O19" t="n">
-        <v>0.595421705354384</v>
+        <v>0.3355311950258631</v>
       </c>
       <c r="P19" t="n">
-        <v>148.2407047218195</v>
+        <v>150.5349246026374</v>
       </c>
       <c r="Q19" t="n">
-        <v>237.2186399371981</v>
+        <v>239.512859818016</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9502362903719741</v>
+        <v>0.9843739110281612</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7380162079514796</v>
+        <v>0.7620328340097658</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8719452700966428</v>
+        <v>0.8758750947703138</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3158243498065816</v>
+        <v>0.9349899205027542</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6843773191265671</v>
+        <v>0.9124773345241802</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3327701554234225</v>
+        <v>0.1044917289062102</v>
       </c>
       <c r="H20" t="n">
-        <v>1.751886823752897</v>
+        <v>1.591287534714742</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4627303847351365</v>
+        <v>0.3806531325454063</v>
       </c>
       <c r="J20" t="n">
-        <v>1.595132471412505</v>
+        <v>0.2712231808835953</v>
       </c>
       <c r="K20" t="n">
-        <v>1.028931103749484</v>
+        <v>0.3259381567145008</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3317625584951454</v>
+        <v>0.3863776649471013</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5768623366310394</v>
+        <v>0.323251804180905</v>
       </c>
       <c r="N20" t="n">
-        <v>1.024374061858625</v>
+        <v>1.007653594598452</v>
       </c>
       <c r="O20" t="n">
-        <v>0.601420560571081</v>
+        <v>0.3370133027083684</v>
       </c>
       <c r="P20" t="n">
-        <v>148.2006065025392</v>
+        <v>150.5172947198652</v>
       </c>
       <c r="Q20" t="n">
-        <v>237.1785417179178</v>
+        <v>239.4952299352439</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9493347958616429</v>
+        <v>0.9842494129606353</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7366199695672192</v>
+        <v>0.7618599632113287</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8693953872703988</v>
+        <v>0.87476874471874</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3018247056189745</v>
+        <v>0.9345014481902372</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6779578295732509</v>
+        <v>0.9117481537039693</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3387984533650073</v>
+        <v>0.1053242480570166</v>
       </c>
       <c r="H21" t="n">
-        <v>1.761223476257533</v>
+        <v>1.592443522539888</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4719444782880095</v>
+        <v>0.3840459698816686</v>
       </c>
       <c r="J21" t="n">
-        <v>1.627772170041885</v>
+        <v>0.2732610958561505</v>
       </c>
       <c r="K21" t="n">
-        <v>1.049858663370114</v>
+        <v>0.3286536573355001</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3218297014862841</v>
+        <v>0.3863091492057177</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5820639598575119</v>
+        <v>0.3245369748688377</v>
       </c>
       <c r="N21" t="n">
-        <v>1.024815610190216</v>
+        <v>1.00771457324377</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6068436276671489</v>
+        <v>0.3383531857731564</v>
       </c>
       <c r="P21" t="n">
-        <v>148.164699762506</v>
+        <v>150.5014232208131</v>
       </c>
       <c r="Q21" t="n">
-        <v>237.1426349778847</v>
+        <v>239.4793584361918</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9485133188123492</v>
+        <v>0.9841365099989972</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7353554809574371</v>
+        <v>0.7617036753320109</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8671021841895825</v>
+        <v>0.8737694881872936</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2892027365447282</v>
+        <v>0.9340607823508458</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6721736116689847</v>
+        <v>0.9110899133113481</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3442916741761888</v>
+        <v>0.1060792306813607</v>
       </c>
       <c r="H22" t="n">
-        <v>1.76967911741358</v>
+        <v>1.593488620308525</v>
       </c>
       <c r="I22" t="n">
-        <v>0.480231050323753</v>
+        <v>0.3871103841360658</v>
       </c>
       <c r="J22" t="n">
-        <v>1.657199865572708</v>
+        <v>0.2750995613924298</v>
       </c>
       <c r="K22" t="n">
-        <v>1.068715235071787</v>
+        <v>0.3311049727642478</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3129080621352724</v>
+        <v>0.3862464957085388</v>
       </c>
       <c r="M22" t="n">
-        <v>0.586763729431352</v>
+        <v>0.3256980667448928</v>
       </c>
       <c r="N22" t="n">
-        <v>1.025217966295992</v>
+        <v>1.007769872653552</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6117434761616115</v>
+        <v>0.3395637077341668</v>
       </c>
       <c r="P22" t="n">
-        <v>148.1325321816348</v>
+        <v>150.487138009641</v>
       </c>
       <c r="Q22" t="n">
-        <v>237.1104673970134</v>
+        <v>239.4650732250196</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9477659139274205</v>
+        <v>0.984034149702113</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7342111149691434</v>
+        <v>0.7615623800490012</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8650397232079627</v>
+        <v>0.8728668403506923</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2778272374276578</v>
+        <v>0.933663113951722</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6669627961661884</v>
+        <v>0.9104954685636584</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3492895740831902</v>
+        <v>0.1067637144579509</v>
       </c>
       <c r="H23" t="n">
-        <v>1.777331498046621</v>
+        <v>1.594433462516616</v>
       </c>
       <c r="I23" t="n">
-        <v>0.487683827462453</v>
+        <v>0.3898785290619517</v>
       </c>
       <c r="J23" t="n">
-        <v>1.683721458404949</v>
+        <v>0.2767586408610502</v>
       </c>
       <c r="K23" t="n">
-        <v>1.085702512829805</v>
+        <v>0.3333187104775275</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3048857191821382</v>
+        <v>0.3861883183354194</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5910072538329713</v>
+        <v>0.3267471720733799</v>
       </c>
       <c r="N23" t="n">
-        <v>1.025584042157998</v>
+        <v>1.007820008309169</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6161676561823143</v>
+        <v>0.340657475648435</v>
       </c>
       <c r="P23" t="n">
-        <v>148.1037079512892</v>
+        <v>150.4742743249026</v>
       </c>
       <c r="Q23" t="n">
-        <v>237.0816431666679</v>
+        <v>239.4522095402812</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9470866906694416</v>
+        <v>0.9839414784488995</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7331760861766603</v>
+        <v>0.7614348077429608</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8631843877500105</v>
+        <v>0.8720521026377639</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2675763567903895</v>
+        <v>0.9333046682966006</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6622688871920304</v>
+        <v>0.9099592580416513</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3538315431368306</v>
+        <v>0.1073834075549024</v>
       </c>
       <c r="H24" t="n">
-        <v>1.784252740347824</v>
+        <v>1.595286539114525</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4943881490515025</v>
+        <v>0.3923770805174809</v>
       </c>
       <c r="J24" t="n">
-        <v>1.707621041151657</v>
+        <v>0.2782540823603954</v>
       </c>
       <c r="K24" t="n">
-        <v>1.10100467339797</v>
+        <v>0.3353155814389382</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2976815299376613</v>
+        <v>0.3861360797074556</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5948374089924326</v>
+        <v>0.3276940761669371</v>
       </c>
       <c r="N24" t="n">
-        <v>1.025916722937416</v>
+        <v>1.007865398310743</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6201608689764282</v>
+        <v>0.3416446914096166</v>
       </c>
       <c r="P24" t="n">
-        <v>148.0778686919081</v>
+        <v>150.462699201765</v>
       </c>
       <c r="Q24" t="n">
-        <v>237.0558039072867</v>
+        <v>239.4406344171437</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9464701868088603</v>
+        <v>0.9838576142091898</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7322403583194945</v>
+        <v>0.7613196030778953</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8615158568307443</v>
+        <v>0.8713173139645058</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2583410888981094</v>
+        <v>0.9329812046671474</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6580417668338192</v>
+        <v>0.9094755272925833</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3579541072912769</v>
+        <v>0.107944208112</v>
       </c>
       <c r="H25" t="n">
-        <v>1.790509956837322</v>
+        <v>1.596056913240287</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5004174457029986</v>
+        <v>0.3946304527131494</v>
       </c>
       <c r="J25" t="n">
-        <v>1.729152757010011</v>
+        <v>0.2796035782410175</v>
       </c>
       <c r="K25" t="n">
-        <v>1.114785101356505</v>
+        <v>0.3371170154770835</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2912019953696613</v>
+        <v>0.3860889149520565</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5982926602351702</v>
+        <v>0.328548638883195</v>
       </c>
       <c r="N25" t="n">
-        <v>1.026218684011987</v>
+        <v>1.00790647467305</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6237632174179252</v>
+        <v>0.3425356346298942</v>
       </c>
       <c r="P25" t="n">
-        <v>148.0547009854451</v>
+        <v>150.4522815537857</v>
       </c>
       <c r="Q25" t="n">
-        <v>237.0326362008237</v>
+        <v>239.4302167691644</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9459109030519902</v>
+        <v>0.9837817458151012</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7313949594066271</v>
+        <v>0.7612156192155203</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8600146455577032</v>
+        <v>0.8706538223164462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2500188665580532</v>
+        <v>0.9326898780241226</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6542338475225227</v>
+        <v>0.9090391539795771</v>
       </c>
       <c r="G26" t="n">
-        <v>0.361694040348732</v>
+        <v>0.1084515404126118</v>
       </c>
       <c r="H26" t="n">
-        <v>1.796163143260371</v>
+        <v>1.59675225380679</v>
       </c>
       <c r="I26" t="n">
-        <v>0.505842126778561</v>
+        <v>0.396665178731947</v>
       </c>
       <c r="J26" t="n">
-        <v>1.748555737933382</v>
+        <v>0.2808189980560427</v>
       </c>
       <c r="K26" t="n">
-        <v>1.127198932355972</v>
+        <v>0.3387420883939948</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2853758609691133</v>
+        <v>0.3860457877054562</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6014100434385279</v>
+        <v>0.3293198147889249</v>
       </c>
       <c r="N26" t="n">
-        <v>1.026492618913311</v>
+        <v>1.007943634702807</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6270133140781227</v>
+        <v>0.3433396410904853</v>
       </c>
       <c r="P26" t="n">
-        <v>148.0339132338793</v>
+        <v>150.4429036758266</v>
       </c>
       <c r="Q26" t="n">
-        <v>237.011848449258</v>
+        <v>239.4208388912052</v>
       </c>
     </row>
   </sheetData>
